--- a/Excel_profile_templates/Profile template - CC Condition Problem List.xlsx
+++ b/Excel_profile_templates/Profile template - CC Condition Problem List.xlsx
@@ -16,9 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="132">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Card.</t>
+  </si>
+  <si>
+    <t>Conformance</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description, Constraints and mapping for XXX Implementation</t>
+  </si>
+  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -29,21 +44,6 @@
   </si>
   <si>
     <t>Not Used</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Card.</t>
-  </si>
-  <si>
-    <t>Conformance</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description, Constraints and mapping for XXX Implementation</t>
   </si>
   <si>
     <t>Condition</t>
@@ -188,13 +188,13 @@
     <t>1..1</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>The namespace for the identifier value &lt;br&gt;&lt;font color='red'&gt;The system from which the identifier came &lt;/font&gt;</t>
   </si>
   <si>
     <t>- - value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>The value that is unique &lt;br&gt;&lt;font color='red'&gt;A value for the identifier &lt;/font&gt;</t>
   </si>
   <si>
     <t>- - period</t>
@@ -432,7 +432,7 @@
     <t>- note</t>
   </si>
   <si>
-    <t>Additional information about the Condition</t>
+    <t>Additional information about the Condition &lt;br&gt;&lt;font color='red'&gt;Mapping to Digital Maternity data item ='Comment' &lt;/font&gt;</t>
   </si>
   <si>
     <t>- - author[x]</t>
@@ -461,7 +461,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="8.0"/>
@@ -474,6 +473,7 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
@@ -558,13 +558,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -656,20 +656,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#id","Id")</f>
@@ -731,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html#Meta","Meta")</f>
@@ -749,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -767,7 +767,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -785,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/narrative.html#Narrative","Narrative")</f>
@@ -803,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html","Resource")</f>
@@ -821,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="14" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ConditionEpisode-1","Extension-CareConnect-ConditionEpisode-1")</f>
@@ -839,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -857,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -875,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -911,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -929,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -947,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -965,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -983,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1001,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D19" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1019,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1037,13 +1037,13 @@
         <v>52</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1055,13 +1055,13 @@
         <v>52</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D23" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>59</v>
@@ -1108,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>59</v>
@@ -1125,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D26" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -1139,7 +1139,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D28" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1173,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D29" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1191,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D30" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1209,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1227,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D32" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D33" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1263,7 +1263,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D34" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1281,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D35" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1299,7 +1299,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D36" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1317,7 +1317,7 @@
         <v>52</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D37" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1335,7 +1335,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D38" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1353,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D39" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1371,7 +1371,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D40" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1389,7 +1389,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D41" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1407,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D42" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D43" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1443,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D44" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D45" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1479,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D46" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1497,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D47" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1515,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1533,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D49" s="10" t="str">
         <f t="shared" ref="D49:D50" si="1">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1551,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D50" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D51" s="14" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -1587,7 +1587,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D52" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1605,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D53" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1623,7 +1623,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1641,7 +1641,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1659,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D56" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1677,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D57" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1695,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D58" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1713,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D59" s="10" t="str">
         <f t="shared" ref="D59:D60" si="2">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1731,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D61" s="14" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -1767,7 +1767,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1785,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D63" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1803,7 +1803,7 @@
         <v>52</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D64" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1821,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D65" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1839,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D66" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1857,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D67" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1875,7 +1875,7 @@
         <v>52</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D68" s="19" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -1889,7 +1889,7 @@
       <c r="A69" s="13"/>
       <c r="B69" s="6"/>
       <c r="C69" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D69" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Group","Group")</f>
@@ -1901,7 +1901,7 @@
       <c r="A70" s="13"/>
       <c r="B70" s="6"/>
       <c r="C70" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D70" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -1917,7 +1917,7 @@
         <v>52</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D71" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1935,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D72" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1953,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D73" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1971,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D74" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -1985,7 +1985,7 @@
       <c r="A75" s="13"/>
       <c r="B75" s="6"/>
       <c r="C75" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D75" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/EpisodeOfCare","EpisodeOfCare")</f>
@@ -1997,7 +1997,7 @@
       <c r="A76" s="13"/>
       <c r="B76" s="6"/>
       <c r="C76" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D76" s="14" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
@@ -2013,7 +2013,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D77" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2031,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D78" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2049,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D79" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2067,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D80" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2081,7 +2081,7 @@
       <c r="A81" s="13"/>
       <c r="B81" s="6"/>
       <c r="C81" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D81" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#age","Age")</f>
@@ -2093,7 +2093,7 @@
       <c r="A82" s="13"/>
       <c r="B82" s="6"/>
       <c r="C82" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D82" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2105,7 +2105,7 @@
       <c r="A83" s="13"/>
       <c r="B83" s="6"/>
       <c r="C83" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D83" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
@@ -2117,7 +2117,7 @@
       <c r="A84" s="13"/>
       <c r="B84" s="6"/>
       <c r="C84" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2133,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D85" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2147,7 +2147,7 @@
       <c r="A86" s="13"/>
       <c r="B86" s="6"/>
       <c r="C86" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D86" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#age","Age")</f>
@@ -2159,7 +2159,7 @@
       <c r="A87" s="13"/>
       <c r="B87" s="6"/>
       <c r="C87" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D87" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2171,7 +2171,7 @@
       <c r="A88" s="13"/>
       <c r="B88" s="6"/>
       <c r="C88" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D88" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2183,7 +2183,7 @@
       <c r="A89" s="13"/>
       <c r="B89" s="6"/>
       <c r="C89" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D89" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
@@ -2195,7 +2195,7 @@
       <c r="A90" s="13"/>
       <c r="B90" s="6"/>
       <c r="C90" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2211,7 +2211,7 @@
         <v>52</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D91" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2229,7 +2229,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D92" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2243,7 +2243,7 @@
       <c r="A93" s="13"/>
       <c r="B93" s="6"/>
       <c r="C93" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D93" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
@@ -2255,7 +2255,7 @@
       <c r="A94" s="13"/>
       <c r="B94" s="6"/>
       <c r="C94" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D94" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -2267,7 +2267,7 @@
       <c r="A95" s="13"/>
       <c r="B95" s="6"/>
       <c r="C95" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D95" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
@@ -2283,7 +2283,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D96" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D97" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2319,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D98" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D99" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -2355,7 +2355,7 @@
         <v>25</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D100" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -2373,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D101" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2391,7 +2391,7 @@
         <v>25</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D102" s="10" t="str">
         <f t="shared" ref="D102:D103" si="3">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2409,7 +2409,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D103" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D104" s="14" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -2445,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D105" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2463,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D106" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2481,7 +2481,7 @@
         <v>52</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D107" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2499,7 +2499,7 @@
         <v>52</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D108" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2517,7 +2517,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D109" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D110" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2553,7 +2553,7 @@
         <v>25</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D111" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2567,7 +2567,7 @@
       <c r="A112" s="13"/>
       <c r="B112" s="6"/>
       <c r="C112" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D112" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ClinicalImpression","ClinicalImpression")</f>
@@ -2579,7 +2579,7 @@
       <c r="A113" s="13"/>
       <c r="B113" s="6"/>
       <c r="C113" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D113" s="14" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/DiagnosticReport","DiagnosticReport")</f>
@@ -2591,7 +2591,7 @@
       <c r="A114" s="13"/>
       <c r="B114" s="6"/>
       <c r="C114" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D114" s="14" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1","CareConnect-Observation-1")</f>
@@ -2607,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D115" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2625,7 +2625,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D116" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D117" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D118" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -2679,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D119" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -2697,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2715,7 +2715,7 @@
         <v>25</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D121" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2733,7 +2733,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2751,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D123" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2769,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D124" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2787,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D125" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2805,7 +2805,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D126" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2823,7 +2823,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D127" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D128" s="19" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2855,7 +2855,7 @@
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
       <c r="C129" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D129" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Resource","Resource")</f>
@@ -2871,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D130" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2889,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D131" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2907,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D132" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2925,13 +2925,13 @@
         <v>25</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D133" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#annotation","Annotation")</f>
         <v>Annotation</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D134" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2957,7 +2957,7 @@
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
       <c r="C135" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D135" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
@@ -2969,7 +2969,7 @@
       <c r="A136" s="13"/>
       <c r="B136" s="6"/>
       <c r="C136" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D136" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
@@ -2981,7 +2981,7 @@
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
       <c r="C137" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D137" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -2993,7 +2993,7 @@
       <c r="A138" s="13"/>
       <c r="B138" s="6"/>
       <c r="C138" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D138" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3009,7 +3009,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D139" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -3027,7 +3027,7 @@
         <v>52</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D140" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3038,604 +3038,604 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="1"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="1"/>
+      <c r="A142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1"/>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="1"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="1"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="1"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="1"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="1"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="1"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="1"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="1"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="1"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="1"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="1"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="1"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="1"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="1"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="1"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="1"/>
+      <c r="A160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="1"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="1"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="1"/>
+      <c r="A163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="1"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="1"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="1"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="1"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="1"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="1"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="1"/>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="1"/>
+      <c r="A171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="1"/>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="1"/>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="1"/>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="1"/>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="1"/>
+      <c r="A176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="1"/>
+      <c r="A177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="1"/>
+      <c r="A178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="1"/>
+      <c r="A179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="1"/>
+      <c r="A180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="1"/>
+      <c r="A181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="1"/>
+      <c r="A182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="1"/>
+      <c r="A183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="1"/>
+      <c r="A184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="1"/>
+      <c r="A185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="1"/>
+      <c r="A186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="1"/>
+      <c r="A187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="1"/>
+      <c r="A188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="1"/>
+      <c r="A189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="1"/>
+      <c r="A190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="1"/>
+      <c r="A191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="1"/>
+      <c r="A192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="1"/>
+      <c r="A193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="1"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="1"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="1"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="1"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="1"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="1"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="1"/>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="1"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="1"/>
+      <c r="A202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="1"/>
+      <c r="A203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="1"/>
+      <c r="A204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="1"/>
+      <c r="A205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="1"/>
+      <c r="A206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="1"/>
+      <c r="A207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="1"/>
+      <c r="A208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="1"/>
+      <c r="A209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="1"/>
+      <c r="A210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="1"/>
+      <c r="A211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="1"/>
+      <c r="A212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="1"/>
+      <c r="A213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="1"/>
+      <c r="A214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="1"/>
+      <c r="A215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="1"/>
+      <c r="A216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="1"/>
+      <c r="A217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="1"/>
+      <c r="A218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="1"/>
+      <c r="A219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="1"/>
+      <c r="A220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="1"/>
+      <c r="A221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="1"/>
+      <c r="A222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="1"/>
+      <c r="A223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="1"/>
+      <c r="A224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="1"/>
+      <c r="A225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="1"/>
+      <c r="A226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="1"/>
+      <c r="A227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="1"/>
+      <c r="A228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="1"/>
+      <c r="A229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="1"/>
+      <c r="A230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="1"/>
+      <c r="A231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="1"/>
+      <c r="A232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="1"/>
+      <c r="A233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="1"/>
+      <c r="A234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="1"/>
+      <c r="A235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="1"/>
+      <c r="A236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="1"/>
+      <c r="A237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="1"/>
+      <c r="A238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="1"/>
+      <c r="A239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="1"/>
+      <c r="A240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="1"/>
+      <c r="A241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="1"/>
+      <c r="A242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="1"/>
+      <c r="A243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="1"/>
+      <c r="A244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="1"/>
+      <c r="A245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="1"/>
+      <c r="A246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="1"/>
+      <c r="A247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="1"/>
+      <c r="A248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="1"/>
+      <c r="A249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="1"/>
+      <c r="A250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="1"/>
+      <c r="A251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="1"/>
+      <c r="A252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="1"/>
+      <c r="A253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="1"/>
+      <c r="A254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="1"/>
+      <c r="A255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="1"/>
+      <c r="A256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="1"/>
+      <c r="A257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="1"/>
+      <c r="A258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="1"/>
+      <c r="A259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="1"/>
+      <c r="A260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="1"/>
+      <c r="A261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="1"/>
+      <c r="A262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="1"/>
+      <c r="A263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="1"/>
+      <c r="A264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="1"/>
+      <c r="A265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="1"/>
+      <c r="A266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="1"/>
+      <c r="A267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="1"/>
+      <c r="A268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="1"/>
+      <c r="A269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="1"/>
+      <c r="A270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="1"/>
+      <c r="A271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="1"/>
+      <c r="A272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="1"/>
+      <c r="A273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="1"/>
+      <c r="A274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="1"/>
+      <c r="A275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="1"/>
+      <c r="A276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="1"/>
+      <c r="A277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="1"/>
+      <c r="A278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="1"/>
+      <c r="A279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="1"/>
+      <c r="A280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="1"/>
+      <c r="A281" s="3"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="1"/>
+      <c r="A282" s="3"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="1"/>
+      <c r="A283" s="3"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="1"/>
+      <c r="A284" s="3"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="1"/>
+      <c r="A285" s="3"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="1"/>
+      <c r="A286" s="3"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="1"/>
+      <c r="A287" s="3"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="1"/>
+      <c r="A288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="1"/>
+      <c r="A289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="1"/>
+      <c r="A290" s="3"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="1"/>
+      <c r="A291" s="3"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="1"/>
+      <c r="A292" s="3"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="1"/>
+      <c r="A293" s="3"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="1"/>
+      <c r="A294" s="3"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="1"/>
+      <c r="A295" s="3"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="1"/>
+      <c r="A296" s="3"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="1"/>
+      <c r="A297" s="3"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="1"/>
+      <c r="A298" s="3"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="1"/>
+      <c r="A299" s="3"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="1"/>
+      <c r="A300" s="3"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="1"/>
+      <c r="A301" s="3"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="1"/>
+      <c r="A302" s="3"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="1"/>
+      <c r="A303" s="3"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="1"/>
+      <c r="A304" s="3"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="1"/>
+      <c r="A305" s="3"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="1"/>
+      <c r="A306" s="3"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="1"/>
+      <c r="A307" s="3"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="1"/>
+      <c r="A308" s="3"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="1"/>
+      <c r="A309" s="3"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="1"/>
+      <c r="A310" s="3"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="1"/>
+      <c r="A311" s="3"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="1"/>
+      <c r="A312" s="3"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="1"/>
+      <c r="A313" s="3"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="1"/>
+      <c r="A314" s="3"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="1"/>
+      <c r="A315" s="3"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="1"/>
+      <c r="A316" s="3"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="1"/>
+      <c r="A317" s="3"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="1"/>
+      <c r="A318" s="3"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="1"/>
+      <c r="A319" s="3"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="1"/>
+      <c r="A320" s="3"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="1"/>
+      <c r="A321" s="3"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="1"/>
+      <c r="A322" s="3"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="1"/>
+      <c r="A323" s="3"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="1"/>
+      <c r="A324" s="3"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="1"/>
+      <c r="A325" s="3"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="1"/>
+      <c r="A326" s="3"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="1"/>
+      <c r="A327" s="3"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="1"/>
+      <c r="A328" s="3"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="1"/>
+      <c r="A329" s="3"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="1"/>
+      <c r="A330" s="3"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="1"/>
+      <c r="A331" s="3"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="1"/>
+      <c r="A332" s="3"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="1"/>
+      <c r="A333" s="3"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="1"/>
+      <c r="A334" s="3"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="1"/>
+      <c r="A335" s="3"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="1"/>
+      <c r="A336" s="3"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="1"/>
+      <c r="A337" s="3"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="1"/>
+      <c r="A338" s="3"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="1"/>
+      <c r="A339" s="3"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="1"/>
+      <c r="A340" s="3"/>
     </row>
     <row r="341" ht="15.75" customHeight="1"/>
     <row r="342" ht="15.75" customHeight="1"/>
@@ -4340,28 +4340,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
